--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3944C8-E764-4993-BCA7-3840A42325AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="6360" windowWidth="14175" xWindow="0" yWindow="2505"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -126,9 +127,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>NEWTC</t>
-  </si>
-  <si>
     <t>MERISSA</t>
   </si>
   <si>
@@ -147,20 +145,22 @@
     <t>VALIC</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>65913301</t>
   </si>
   <si>
     <t>510335999</t>
+  </si>
+  <si>
+    <t>Framework_001</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,34 +236,37 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -274,10 +277,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -312,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,9 +348,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,6 +400,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,7 +472,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -444,13 +481,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -460,7 +497,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -469,7 +506,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -478,7 +515,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -488,12 +525,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -524,7 +561,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -543,7 +580,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -555,29 +592,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="4" width="17.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,30 +664,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -674,7 +711,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -685,7 +722,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
@@ -721,27 +758,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>34</v>
@@ -770,40 +807,42 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F2:F4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="M2"/>
-    <hyperlink r:id="rId2" ref="M3"/>
-    <hyperlink r:id="rId3" ref="M4"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>